--- a/CAF/ConditionalAccessBlueprint-Template.xlsx
+++ b/CAF/ConditionalAccessBlueprint-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbaes\Development\jbaes\src\CAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B704F3-04E4-45FC-8AD5-307A4955EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01053CF4-C102-4CD9-9534-864AB4CB8BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{590C24E4-4A73-44F3-8B4D-C51996FA739D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="79">
   <si>
     <t>persona #1</t>
   </si>
@@ -118,7 +118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block other Operating Systems</t>
+      <t xml:space="preserve"> Block based on device Extension Attribute</t>
     </r>
   </si>
   <si>
@@ -141,7 +141,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block based on device Extension Attribute</t>
+      <t xml:space="preserve"> Block based on device properties </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(device name, manufacturer, model, ...)</t>
     </r>
   </si>
   <si>
@@ -164,18 +175,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block based on device properties </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(device name, manufacturer, model, ...)</t>
+      <t xml:space="preserve"> Block non-trusted IP (ranges)</t>
     </r>
   </si>
   <si>
@@ -198,7 +198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block unknown device Operating Systems</t>
+      <t xml:space="preserve"> Block other countries</t>
     </r>
   </si>
   <si>
@@ -221,7 +221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block non-trusted IP (ranges)</t>
+      <t xml:space="preserve"> Block access to other applications</t>
     </r>
   </si>
   <si>
@@ -244,7 +244,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block other countries</t>
+      <t xml:space="preserve"> Block access from desktop apps</t>
     </r>
   </si>
   <si>
@@ -267,7 +267,145 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block access to other applications</t>
+      <t xml:space="preserve"> Block legacy authentication clients</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Require a compliant device</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Require App Protection Policy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sign-in Frequency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Token Protection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Apply Conditional Access App Control</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Take action on identity risk</t>
     </r>
   </si>
   <si>
@@ -290,8 +428,122 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block access from desktop apps</t>
-    </r>
+      <t xml:space="preserve"> Block full access</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>persona #2</t>
+  </si>
+  <si>
+    <t>Block every OS except Windows</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>persona #3</t>
+  </si>
+  <si>
+    <t>persona #4</t>
+  </si>
+  <si>
+    <t>persona #5</t>
+  </si>
+  <si>
+    <t>persona #6</t>
+  </si>
+  <si>
+    <t>persona #7</t>
+  </si>
+  <si>
+    <t>persona #8</t>
+  </si>
+  <si>
+    <t>persona #9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : action applicable to persona</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  : action not applicable to persona</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      : TBD</t>
+    </r>
+  </si>
+  <si>
+    <t>Next steps:</t>
+  </si>
+  <si>
+    <t>Conditional Acces Framework</t>
   </si>
   <si>
     <r>
@@ -313,8 +565,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block legacy authentication clients</t>
-    </r>
+      <t xml:space="preserve"> Block 'Device code' authentication flow</t>
+    </r>
+  </si>
+  <si>
+    <t>https://jbaes.be/Conditional-Access-Blueprint</t>
+  </si>
+  <si>
+    <t>It is possible for this persona to...</t>
+  </si>
+  <si>
+    <t>All users</t>
+  </si>
+  <si>
+    <t>General users</t>
+  </si>
+  <si>
+    <t>Service Accounts</t>
+  </si>
+  <si>
+    <t>ADM users</t>
+  </si>
+  <si>
+    <t>DEV users</t>
   </si>
   <si>
     <r>
@@ -336,7 +609,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require MFA strength</t>
+      <t xml:space="preserve"> Require phishing-resistant MFA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block unknow/other Operating Systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block Old Operating Systems versions</t>
     </r>
   </si>
   <si>
@@ -359,7 +678,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require a compliant device</t>
+      <t xml:space="preserve"> Require additional controls</t>
     </r>
   </si>
   <si>
@@ -382,359 +701,105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require App Protection Policy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>✔️</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sign-in Frequency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>✔️</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Token Protection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>✔️</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Apply Conditional Access App Control</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>✔️</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Take action on identity risk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block full access</t>
-    </r>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>persona #2</t>
-  </si>
-  <si>
-    <t>Block every OS except Windows</t>
-  </si>
-  <si>
-    <t>MWP</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t>External users</t>
-  </si>
-  <si>
-    <t>Entra Connect Sync service accounts</t>
-  </si>
-  <si>
-    <t>Teams Meeting Room service accounts</t>
-  </si>
-  <si>
-    <t>Break the Glass accounts</t>
-  </si>
-  <si>
-    <t>Admin accounts</t>
-  </si>
-  <si>
-    <t>DEV accounts</t>
-  </si>
-  <si>
-    <t>Regular user accounts</t>
-  </si>
-  <si>
-    <t>Printer 
-service accounts</t>
-  </si>
-  <si>
-    <t>Security Camera
-service accounts</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>persona #3</t>
-  </si>
-  <si>
-    <t>persona #4</t>
-  </si>
-  <si>
-    <t>persona #5</t>
-  </si>
-  <si>
-    <t>persona #6</t>
-  </si>
-  <si>
-    <t>persona #7</t>
-  </si>
-  <si>
-    <t>persona #8</t>
-  </si>
-  <si>
-    <t>persona #9</t>
-  </si>
-  <si>
-    <t>Block access outside trusted IP range</t>
-  </si>
-  <si>
-    <t>Block outside EU</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Require password reset</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> YES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : action applicable to persona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  : action not applicable to persona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      : TBD</t>
-    </r>
-  </si>
-  <si>
-    <t>Next steps:</t>
-  </si>
-  <si>
-    <t>Conditional Acces Framework</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block 'Device code' authentication flow</t>
-    </r>
-  </si>
-  <si>
-    <t>Recommended Conditional Access policies:</t>
-  </si>
-  <si>
-    <t>https://jbaes.be/Conditional-Access-Blueprint</t>
-  </si>
-  <si>
-    <t>Now group these personas in Conditional Access policies based on the common actions. Then, add the personas to the policy. No need to create a seperate policy per persona.</t>
-  </si>
-  <si>
-    <t>It is possible for this persona to...</t>
-  </si>
-  <si>
-    <t>CA001 – All Apps : Require MFA for All Users</t>
-  </si>
-  <si>
-    <t>CA002 – All Apps : Block for All Users when legacy authentication</t>
-  </si>
-  <si>
-    <t>CA003 – All Apps : Block for All Users when high sign-in risk</t>
-  </si>
-  <si>
-    <t>CA004 – All Apps : Block for All Users when high sign-in risk</t>
-  </si>
-  <si>
-    <t>CA005 – Azure mgmt : Block for non-admins</t>
-  </si>
-  <si>
-    <t>CA006 – All Apps : Require compliant device</t>
-  </si>
-  <si>
-    <t>CA007 – Some Apps : Require sign-in frequency every 8h</t>
-  </si>
-  <si>
-    <t>CA008 – Some Apps : Require sign-in frequency every 72h</t>
-  </si>
-  <si>
-    <t>CA009 – Some Apps : Require sign-in frequency every time</t>
-  </si>
-  <si>
-    <t>CA010 – All Apps : Require trusted location X</t>
+      <t xml:space="preserve"> Require MFA when users join or register</t>
+    </r>
+  </si>
+  <si>
+    <t>Block below version 10.0</t>
+  </si>
+  <si>
+    <t>!! THIS IS A TEMPLATE !!</t>
+  </si>
+  <si>
+    <t>persona #10</t>
+  </si>
+  <si>
+    <t>Create below CA policies as needed. Then include or exclude personas</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Full block</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require MFA</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require phishing-resistant MFA</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require compliant device</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require corporate owned devices</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Allow deviceID for AD Sync accounts</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block unknown Operating Systems</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block all devices except Extension Attribute ‘MeetingRoomDevices’</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Only allow manufacturer X</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block old Windows versions</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require App Protection Policies (Android + iOS)</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require trusted IP</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Allow USA and Europe</t>
+  </si>
+  <si>
+    <t>CA – O365 : Allow access</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Sign-in frequency 2 weeks</t>
+  </si>
+  <si>
+    <t>CA – O365 : Require Token Protection</t>
+  </si>
+  <si>
+    <t>CA – O365 : Block desktop app</t>
+  </si>
+  <si>
+    <t>CA – All Apps : CA App Controls</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block legacy authentication</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block device code authentication</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block for All Users when high sign-in risk</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require addidional control</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require MFA on device join</t>
+  </si>
+  <si>
+    <t>Now group these personas in Conditional Access policies based on their common actions. Then, add the personas to the policy. No need to create a seperate policy for each persona.</t>
+  </si>
+  <si>
+    <t>Scoped on O365</t>
+  </si>
+  <si>
+    <t>Device Attribute 'XXX'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,13 +960,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF27374D"/>
@@ -934,14 +992,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
@@ -959,6 +1009,12 @@
       <b/>
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1083,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1106,32 +1162,62 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1144,7 +1230,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,54 +1245,22 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
@@ -1214,16 +1268,41 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1234,11 +1313,31 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1259,26 +1358,76 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1289,21 +1438,51 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1344,242 +1523,17 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -1897,94 +1851,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C93947D-9E3A-4EA6-8CCF-82CFE84F5ADA}">
-  <dimension ref="B1:AL51"/>
+  <dimension ref="B1:AN40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="152" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="123" zoomScaleNormal="138" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="19" customWidth="1"/>
-    <col min="2" max="6" width="9.06640625" style="19"/>
-    <col min="7" max="7" width="8.796875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="0.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.53125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="0.33203125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="13.53125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="0.33203125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="13.53125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="0.33203125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="13.53125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="0.33203125" style="19" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="19" customWidth="1"/>
-    <col min="22" max="22" width="13.53125" style="19" customWidth="1"/>
-    <col min="23" max="23" width="0.33203125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="13.53125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="0.33203125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="13.53125" style="19" customWidth="1"/>
-    <col min="29" max="29" width="0.33203125" style="19" customWidth="1"/>
-    <col min="30" max="30" width="3.33203125" style="19" customWidth="1"/>
-    <col min="31" max="31" width="13.53125" style="19" customWidth="1"/>
-    <col min="32" max="32" width="0.33203125" style="19" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" style="19" customWidth="1"/>
-    <col min="34" max="34" width="13.53125" style="19" customWidth="1"/>
-    <col min="35" max="35" width="0.33203125" style="19" customWidth="1"/>
-    <col min="36" max="36" width="3.33203125" style="19" customWidth="1"/>
-    <col min="37" max="37" width="13.53125" style="19" customWidth="1"/>
-    <col min="38" max="38" width="0.33203125" style="19" customWidth="1"/>
-    <col min="39" max="39" width="3.33203125" style="19" customWidth="1"/>
-    <col min="40" max="16384" width="9.06640625" style="19"/>
+    <col min="1" max="1" width="2.46484375" style="11" customWidth="1"/>
+    <col min="2" max="6" width="9.06640625" style="11"/>
+    <col min="7" max="7" width="8.796875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="0.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="0.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.53125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="0.33203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="13.53125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="0.33203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13.53125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="0.33203125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.53125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="0.33203125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="13.53125" style="11" customWidth="1"/>
+    <col min="26" max="26" width="0.33203125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="13.53125" style="11" customWidth="1"/>
+    <col min="29" max="29" width="0.33203125" style="11" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="13.53125" style="11" customWidth="1"/>
+    <col min="32" max="32" width="0.33203125" style="11" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" style="11" customWidth="1"/>
+    <col min="34" max="34" width="13.53125" style="11" customWidth="1"/>
+    <col min="35" max="35" width="0.33203125" style="11" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="11" customWidth="1"/>
+    <col min="37" max="37" width="13.53125" style="11" customWidth="1"/>
+    <col min="38" max="38" width="0.33203125" style="11" customWidth="1"/>
+    <col min="39" max="39" width="3.33203125" style="11" customWidth="1"/>
+    <col min="40" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+    <row r="1" spans="2:40" ht="14.65" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+    <row r="2" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="2:37" ht="10.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
-        <v>57</v>
+    <row r="3" spans="2:40" ht="10.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
@@ -1992,143 +1946,149 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:37" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="52" t="s">
+    <row r="4" spans="2:40" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="L4" s="52" t="s">
+      <c r="J4" s="25"/>
+      <c r="L4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="O4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="O4" s="52" t="s">
+      <c r="P4" s="25"/>
+      <c r="R4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="U4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="25"/>
+      <c r="X4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="AA4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AD4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="25"/>
+      <c r="AG4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="25"/>
+      <c r="AJ4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" s="25"/>
+    </row>
+    <row r="5" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="R4" s="52" t="s">
+      <c r="J5" s="28"/>
+      <c r="L5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="U4" s="52" t="s">
+      <c r="M5" s="29"/>
+      <c r="O5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="X4" s="52" t="s">
+      <c r="P5" s="30"/>
+      <c r="R5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="52"/>
-      <c r="AA4" s="52" t="s">
+      <c r="S5" s="30"/>
+      <c r="U5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AB4" s="52"/>
-      <c r="AD4" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE4" s="52"/>
-      <c r="AG4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH4" s="52"/>
-      <c r="AJ4" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK4" s="52"/>
+      <c r="V5" s="26"/>
+      <c r="X5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="AA5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="27"/>
+      <c r="AD5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AG5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="27"/>
+      <c r="AJ5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK5" s="27"/>
     </row>
-    <row r="5" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="L5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="O5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="R5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="14"/>
-      <c r="U5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="15"/>
-      <c r="AA5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5" s="16"/>
-      <c r="AD5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE5" s="12"/>
-      <c r="AG5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH5" s="17"/>
-      <c r="AJ5" s="15" t="s">
+    <row r="6" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+    </row>
+    <row r="7" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="AK5" s="17"/>
-    </row>
-    <row r="6" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-    </row>
-    <row r="7" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AN7" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="2:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2136,9 +2096,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2146,47 +2106,50 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2"/>
       <c r="L9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="2"/>
       <c r="R9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S9" s="2"/>
       <c r="U9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V9" s="2"/>
       <c r="X9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="AA9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AD9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AG9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AJ9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK9" s="2"/>
+      <c r="AN9" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -2196,49 +2159,52 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
       <c r="L10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P10" s="2"/>
       <c r="R10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S10" s="2"/>
       <c r="U10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V10" s="2"/>
       <c r="X10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="AA10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AD10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AG10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AJ10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK10" s="2"/>
+      <c r="AN10" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2246,49 +2212,52 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V11" s="2"/>
       <c r="X11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="AA11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AD11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AG11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH11" s="2"/>
       <c r="AJ11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK11" s="2"/>
+      <c r="AN11" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2296,47 +2265,50 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2"/>
       <c r="L12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" s="2"/>
       <c r="R12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V12" s="2"/>
       <c r="X12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="AA12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AD12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AG12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AJ12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK12" s="2"/>
+      <c r="AN12" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -2346,47 +2318,50 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P13" s="2"/>
       <c r="R13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V13" s="2"/>
       <c r="X13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="AA13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AD13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AG13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AJ13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK13" s="2"/>
+      <c r="AN13" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -2396,49 +2371,52 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P14" s="2"/>
       <c r="R14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S14" s="2"/>
       <c r="U14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V14" s="2"/>
       <c r="X14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="AA14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AD14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AG14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AJ14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK14" s="2"/>
+      <c r="AN14" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2446,53 +2424,56 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P15" s="2"/>
       <c r="R15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S15" s="2"/>
       <c r="U15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V15" s="2"/>
       <c r="X15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="AA15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AD15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AG15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AJ15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK15" s="2"/>
+      <c r="AN15" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2500,53 +2481,54 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="L16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="R16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S16" s="5"/>
       <c r="U16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V16" s="5"/>
       <c r="X16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y16" s="5"/>
       <c r="AA16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AD16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" s="5"/>
       <c r="AG16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH16" s="5"/>
       <c r="AJ16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK16" s="5"/>
+      <c r="AN16" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2554,51 +2536,52 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2"/>
       <c r="L17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P17" s="2"/>
       <c r="R17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S17" s="2"/>
       <c r="U17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V17" s="2"/>
       <c r="X17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="AA17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AD17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AG17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AJ17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK17" s="2"/>
+      <c r="AN17" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2606,49 +2589,54 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P18" s="2"/>
       <c r="R18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S18" s="2"/>
       <c r="U18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V18" s="2"/>
       <c r="X18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="AA18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AD18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AG18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AJ18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK18" s="2"/>
+      <c r="AN18" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2656,49 +2644,52 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2"/>
       <c r="L19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P19" s="2"/>
       <c r="R19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S19" s="2"/>
       <c r="U19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="AA19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AD19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AG19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AJ19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK19" s="2"/>
+      <c r="AN19" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="20" spans="2:37" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2706,51 +2697,52 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M20" s="6"/>
       <c r="O20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P20" s="2"/>
       <c r="R20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S20" s="2"/>
       <c r="U20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V20" s="2"/>
       <c r="X20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="AA20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AD20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AG20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AJ20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK20" s="2"/>
+      <c r="AN20" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2758,51 +2750,52 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2"/>
       <c r="L21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P21" s="2"/>
       <c r="R21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S21" s="2"/>
       <c r="U21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="AA21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AD21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AG21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AJ21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK21" s="2"/>
+      <c r="AN21" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2810,49 +2803,52 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M22" s="2"/>
       <c r="O22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P22" s="2"/>
       <c r="R22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S22" s="2"/>
       <c r="U22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V22" s="2"/>
       <c r="X22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="AA22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AD22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AG22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AJ22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK22" s="2"/>
+      <c r="AN22" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2860,49 +2856,52 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P23" s="2"/>
       <c r="R23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S23" s="2"/>
       <c r="U23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="AA23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AD23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AG23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AJ23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK23" s="2"/>
+      <c r="AN23" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2910,49 +2909,54 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P24" s="2"/>
       <c r="R24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S24" s="2"/>
       <c r="U24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V24" s="2"/>
       <c r="X24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="AA24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AD24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AG24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AJ24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK24" s="2"/>
+      <c r="AN24" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2960,49 +2964,52 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2"/>
       <c r="L25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P25" s="2"/>
       <c r="R25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S25" s="2"/>
       <c r="U25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V25" s="2"/>
       <c r="X25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="AA25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AD25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AG25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AJ25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK25" s="2"/>
+      <c r="AN25" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3010,49 +3017,52 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S26" s="2"/>
       <c r="U26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V26" s="2"/>
       <c r="X26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="AA26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AD26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AG26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH26" s="2"/>
       <c r="AJ26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK26" s="2"/>
+      <c r="AN26" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3060,49 +3070,52 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2"/>
       <c r="L27" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S27" s="2"/>
       <c r="U27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V27" s="2"/>
       <c r="X27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="AA27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AD27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AG27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AJ27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK27" s="2"/>
+      <c r="AN27" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3110,49 +3123,52 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J28" s="2"/>
       <c r="L28" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P28" s="2"/>
       <c r="R28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S28" s="2"/>
       <c r="U28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V28" s="2"/>
       <c r="X28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="AA28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AD28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AG28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH28" s="2"/>
       <c r="AJ28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK28" s="2"/>
+      <c r="AN28" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3160,385 +3176,330 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J29" s="2"/>
       <c r="L29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P29" s="2"/>
       <c r="R29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S29" s="2"/>
       <c r="U29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V29" s="2"/>
       <c r="X29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="AA29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AD29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AG29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH29" s="2"/>
       <c r="AJ29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK29" s="2"/>
+      <c r="AN29" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="30" spans="2:37" ht="1.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18"/>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="L30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="O30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="R30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="U30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="X30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="AA30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AD30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE30" s="2"/>
+      <c r="AG30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH30" s="2"/>
+      <c r="AJ30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK30" s="2"/>
+      <c r="AN30" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="B32" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="O31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="R31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="U31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="X31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="AA31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AD31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE31" s="2"/>
+      <c r="AG31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH31" s="2"/>
+      <c r="AJ31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK31" s="2"/>
+      <c r="AN31" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B34" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
     </row>
-    <row r="36" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B37" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="30"/>
+    <row r="37" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
     </row>
-    <row r="38" spans="2:38" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="30"/>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B38" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="13"/>
     </row>
-    <row r="39" spans="2:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="30"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
+    <row r="39" spans="2:38" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="13"/>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B40" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B41" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B42" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B43" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B44" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B45" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B46" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B47" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B48" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B49" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B50" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-    </row>
-    <row r="51" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30"/>
+    <row r="40" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P6"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ5:AK6"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB6"/>
     <mergeCell ref="AD4:AE4"/>
@@ -3549,207 +3510,227 @@
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V6"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P6"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I29 L9:L29">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+  <conditionalFormatting sqref="I9:I31">
+    <cfRule type="cellIs" dxfId="56" priority="99" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="97" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="98" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39 L38:L39">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I38 L37:L38">
-    <cfRule type="cellIs" dxfId="71" priority="46" operator="equal">
+  <conditionalFormatting sqref="L9:L31">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O29">
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
+  <conditionalFormatting sqref="O9:O31">
+    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="93" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O38">
-    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
+  <conditionalFormatting sqref="O38:O39">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R31">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R37:R38">
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
+  <conditionalFormatting sqref="R38:R39">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U31">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U37:U38">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+  <conditionalFormatting sqref="U38:U39">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X31">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:X39">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X37:X38">
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
+  <conditionalFormatting sqref="AA9:AA31">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA38:AA39">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD31">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA37:AA38">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+  <conditionalFormatting sqref="AD38:AD39">
+    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD37:AD38">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+  <conditionalFormatting sqref="AG9:AG31">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38:AG39">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9:AJ31">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37:AG38">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37:AJ38">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R29">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U29">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9:X29">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA29">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD29">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG29">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ38:AJ39">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AJ29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I29 I37:I38 AA9:AA29 L9:L29 O9:O29 AG9:AG29 R9:R29 U9:U29 X9:X29 AD9:AD29 AG37:AG38 O37:O38 R37:R38 U37:U38 X37:X38 AA37:AA38 AD37:AD38 AJ37:AJ38 L37:L38 AJ9:AJ29" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I31 I38:I39 AA9:AA31 AJ9:AJ31 O9:O31 AG9:AG31 R9:R31 U9:U31 X9:X31 AD9:AD31 AG38:AG39 O38:O39 R38:R39 U38:U39 X38:X39 AA38:AA39 AD38:AD39 AJ38:AJ39 L38:L39 L9:L31" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
       <formula1>"?,YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CAF/ConditionalAccessBlueprint-Template.xlsx
+++ b/CAF/ConditionalAccessBlueprint-Template.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbaes\Development\jbaes\src\CAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01053CF4-C102-4CD9-9534-864AB4CB8BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B10FFC-B43F-4B1E-A1C4-F129F1BEB070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{590C24E4-4A73-44F3-8B4D-C51996FA739D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="8445" windowWidth="21600" windowHeight="7035" xr2:uid="{590C24E4-4A73-44F3-8B4D-C51996FA739D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="78">
   <si>
     <t>persona #1</t>
   </si>
@@ -543,9 +554,6 @@
     <t>Next steps:</t>
   </si>
   <si>
-    <t>Conditional Acces Framework</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -569,9 +577,6 @@
     </r>
   </si>
   <si>
-    <t>https://jbaes.be/Conditional-Access-Blueprint</t>
-  </si>
-  <si>
     <t>It is possible for this persona to...</t>
   </si>
   <si>
@@ -708,9 +713,6 @@
     <t>Block below version 10.0</t>
   </si>
   <si>
-    <t>!! THIS IS A TEMPLATE !!</t>
-  </si>
-  <si>
     <t>persona #10</t>
   </si>
   <si>
@@ -793,13 +795,19 @@
   </si>
   <si>
     <t>Device Attribute 'XXX'</t>
+  </si>
+  <si>
+    <t>!! THIS IS AN EXAMPLE !!</t>
+  </si>
+  <si>
+    <t>Conditional Access Blueprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,21 +842,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,14 +956,6 @@
       <b/>
       <sz val="22"/>
       <color rgb="FF27374D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1135,14 +1120,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1151,47 +1135,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1200,84 +1175,121 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1288,16 +1300,36 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1313,6 +1345,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1328,16 +1365,36 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1358,6 +1415,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1373,31 +1435,66 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1408,132 +1505,12 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
   </dxfs>
@@ -1851,254 +1828,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C93947D-9E3A-4EA6-8CCF-82CFE84F5ADA}">
-  <dimension ref="B1:AN40"/>
+  <dimension ref="B1:AN39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="123" zoomScaleNormal="138" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="11" customWidth="1"/>
-    <col min="2" max="6" width="9.06640625" style="11"/>
-    <col min="7" max="7" width="8.796875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="0.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.53125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="0.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.53125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="0.33203125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="13.53125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="0.33203125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="13.53125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="0.33203125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="13.53125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="0.33203125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="11" customWidth="1"/>
-    <col min="25" max="25" width="13.53125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="0.33203125" style="11" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="11" customWidth="1"/>
-    <col min="28" max="28" width="13.53125" style="11" customWidth="1"/>
-    <col min="29" max="29" width="0.33203125" style="11" customWidth="1"/>
-    <col min="30" max="30" width="3.33203125" style="11" customWidth="1"/>
-    <col min="31" max="31" width="13.53125" style="11" customWidth="1"/>
-    <col min="32" max="32" width="0.33203125" style="11" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" style="11" customWidth="1"/>
-    <col min="34" max="34" width="13.53125" style="11" customWidth="1"/>
-    <col min="35" max="35" width="0.33203125" style="11" customWidth="1"/>
-    <col min="36" max="36" width="3.33203125" style="11" customWidth="1"/>
-    <col min="37" max="37" width="13.53125" style="11" customWidth="1"/>
-    <col min="38" max="38" width="0.33203125" style="11" customWidth="1"/>
-    <col min="39" max="39" width="3.33203125" style="11" customWidth="1"/>
-    <col min="40" max="16384" width="9.06640625" style="11"/>
+    <col min="1" max="1" width="2.46484375" style="9" customWidth="1"/>
+    <col min="2" max="6" width="9.06640625" style="9"/>
+    <col min="7" max="7" width="8.796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="0.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="0.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.53125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="0.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="13.53125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="0.33203125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="13.53125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="0.33203125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="13.53125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="0.33203125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="13.53125" style="9" customWidth="1"/>
+    <col min="26" max="26" width="0.33203125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="13.53125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="0.33203125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="9" customWidth="1"/>
+    <col min="31" max="31" width="13.53125" style="9" customWidth="1"/>
+    <col min="32" max="32" width="0.33203125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" style="9" customWidth="1"/>
+    <col min="34" max="34" width="13.53125" style="9" customWidth="1"/>
+    <col min="35" max="35" width="0.33203125" style="9" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="9" customWidth="1"/>
+    <col min="37" max="37" width="13.53125" style="9" customWidth="1"/>
+    <col min="38" max="38" width="0.33203125" style="9" customWidth="1"/>
+    <col min="39" max="39" width="3.33203125" style="9" customWidth="1"/>
+    <col min="40" max="16384" width="9.06640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="14.65" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="2:40" ht="10.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:40" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="L3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="R3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="22"/>
+      <c r="U3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="X3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="AA3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="22"/>
+      <c r="AD3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="22"/>
+      <c r="AG3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="22"/>
+      <c r="AJ3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="22"/>
+    </row>
+    <row r="4" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:40" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="L4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="O4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="25"/>
-      <c r="R4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="U4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="25"/>
-      <c r="X4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="25"/>
-      <c r="AA4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="25"/>
-      <c r="AD4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="25"/>
-      <c r="AG4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH4" s="25"/>
-      <c r="AJ4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK4" s="25"/>
+      <c r="J4" s="39"/>
+      <c r="L4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="O4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="R4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="U4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="X4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="24"/>
+      <c r="AA4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="24"/>
+      <c r="AD4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="24"/>
+      <c r="AG4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="24"/>
+      <c r="AJ4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK4" s="24"/>
     </row>
     <row r="5" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="L5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="O5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="30"/>
-      <c r="R5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="U5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="X5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="27"/>
-      <c r="AA5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="27"/>
-      <c r="AD5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="27"/>
-      <c r="AG5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="27"/>
-      <c r="AJ5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK5" s="27"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
     </row>
-    <row r="6" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
+    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AN6" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
+    <row r="7" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AN7" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="8" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="R8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="U8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="X8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="AA8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AD8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AG8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AJ8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AN8" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2106,11 +2126,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2"/>
       <c r="L9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="2"/>
       <c r="O9" s="3" t="s">
@@ -2145,13 +2165,13 @@
         <v>18</v>
       </c>
       <c r="AK9" s="2"/>
-      <c r="AN9" s="23" t="s">
-        <v>53</v>
+      <c r="AN9" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2159,11 +2179,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
       <c r="L10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" s="2"/>
       <c r="O10" s="3" t="s">
@@ -2198,13 +2218,13 @@
         <v>18</v>
       </c>
       <c r="AK10" s="2"/>
-      <c r="AN10" s="11" t="s">
-        <v>54</v>
+      <c r="AN10" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2212,11 +2232,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11" s="3" t="s">
@@ -2251,13 +2271,13 @@
         <v>18</v>
       </c>
       <c r="AK11" s="2"/>
-      <c r="AN11" s="11" t="s">
-        <v>55</v>
+      <c r="AN11" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2304,13 +2324,13 @@
         <v>18</v>
       </c>
       <c r="AK12" s="2"/>
-      <c r="AN12" s="11" t="s">
-        <v>56</v>
+      <c r="AN12" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2318,11 +2338,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13" s="3" t="s">
@@ -2357,13 +2377,13 @@
         <v>18</v>
       </c>
       <c r="AK13" s="2"/>
-      <c r="AN13" s="11" t="s">
-        <v>57</v>
+      <c r="AN13" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2371,13 +2391,17 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="O14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2410,13 +2434,13 @@
         <v>18</v>
       </c>
       <c r="AK14" s="2"/>
-      <c r="AN14" s="11" t="s">
-        <v>58</v>
+      <c r="AN14" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2424,56 +2448,54 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>22</v>
+      <c r="M15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" s="5"/>
       <c r="R15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="2"/>
+      <c r="S15" s="5"/>
       <c r="U15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V15" s="2"/>
+      <c r="V15" s="5"/>
       <c r="X15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="5"/>
       <c r="AA15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="5"/>
       <c r="AD15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="5"/>
       <c r="AG15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="5"/>
       <c r="AJ15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AK15" s="2"/>
-      <c r="AN15" s="11" t="s">
-        <v>59</v>
+      <c r="AK15" s="5"/>
+      <c r="AN15" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2483,52 +2505,50 @@
       <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="2"/>
       <c r="L16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="O16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="2"/>
       <c r="R16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="5"/>
+      <c r="S16" s="2"/>
       <c r="U16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="5"/>
+      <c r="V16" s="2"/>
       <c r="X16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="5"/>
+      <c r="Y16" s="2"/>
       <c r="AA16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="2"/>
       <c r="AD16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="2"/>
       <c r="AG16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH16" s="5"/>
+      <c r="AH16" s="2"/>
       <c r="AJ16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AK16" s="5"/>
-      <c r="AN16" s="11" t="s">
-        <v>60</v>
+      <c r="AK16" s="2"/>
+      <c r="AN16" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2536,9 +2556,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2575,13 +2597,13 @@
         <v>18</v>
       </c>
       <c r="AK17" s="2"/>
-      <c r="AN17" s="11" t="s">
-        <v>61</v>
+      <c r="AN17" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2589,11 +2611,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J18" s="2"/>
       <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2630,13 +2650,13 @@
         <v>18</v>
       </c>
       <c r="AK18" s="2"/>
-      <c r="AN18" s="11" t="s">
-        <v>62</v>
+      <c r="AN18" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2650,7 +2670,7 @@
       <c r="L19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="6"/>
       <c r="O19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2683,13 +2703,13 @@
         <v>18</v>
       </c>
       <c r="AK19" s="2"/>
-      <c r="AN19" s="11" t="s">
-        <v>63</v>
+      <c r="AN19" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2703,7 +2723,7 @@
       <c r="L20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="2"/>
       <c r="O20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2736,13 +2756,13 @@
         <v>18</v>
       </c>
       <c r="AK20" s="2"/>
-      <c r="AN20" s="11" t="s">
-        <v>64</v>
+      <c r="AN20" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2750,7 +2770,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J21" s="2"/>
       <c r="L21" s="3" t="s">
@@ -2789,13 +2809,13 @@
         <v>18</v>
       </c>
       <c r="AK21" s="2"/>
-      <c r="AN21" s="11" t="s">
-        <v>65</v>
+      <c r="AN21" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2842,13 +2862,13 @@
         <v>18</v>
       </c>
       <c r="AK22" s="2"/>
-      <c r="AN22" s="11" t="s">
-        <v>66</v>
+      <c r="AN22" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2856,9 +2876,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="L23" s="3" t="s">
         <v>18</v>
       </c>
@@ -2895,13 +2917,13 @@
         <v>18</v>
       </c>
       <c r="AK23" s="2"/>
-      <c r="AN23" s="11" t="s">
-        <v>67</v>
+      <c r="AN23" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2909,11 +2931,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="L24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2950,13 +2970,13 @@
         <v>18</v>
       </c>
       <c r="AK24" s="2"/>
-      <c r="AN24" s="11" t="s">
-        <v>68</v>
+      <c r="AN24" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3003,13 +3023,13 @@
         <v>18</v>
       </c>
       <c r="AK25" s="2"/>
-      <c r="AN25" s="11" t="s">
-        <v>69</v>
+      <c r="AN25" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3017,7 +3037,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="3" t="s">
@@ -3056,13 +3076,13 @@
         <v>18</v>
       </c>
       <c r="AK26" s="2"/>
-      <c r="AN26" s="11" t="s">
-        <v>70</v>
+      <c r="AN26" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3109,13 +3129,13 @@
         <v>18</v>
       </c>
       <c r="AK27" s="2"/>
-      <c r="AN27" s="11" t="s">
-        <v>71</v>
+      <c r="AN27" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3162,13 +3182,13 @@
         <v>18</v>
       </c>
       <c r="AK28" s="2"/>
-      <c r="AN28" s="11" t="s">
-        <v>72</v>
+      <c r="AN28" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3176,7 +3196,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2"/>
       <c r="L29" s="3" t="s">
@@ -3215,13 +3235,13 @@
         <v>18</v>
       </c>
       <c r="AK29" s="2"/>
-      <c r="AN29" s="11" t="s">
-        <v>73</v>
+      <c r="AN29" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3268,270 +3288,217 @@
         <v>18</v>
       </c>
       <c r="AK30" s="2"/>
-      <c r="AN30" s="11" t="s">
-        <v>74</v>
+      <c r="AN30" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="I31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="L31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="O31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="R31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="2"/>
-      <c r="U31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V31" s="2"/>
-      <c r="X31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y31" s="2"/>
-      <c r="AA31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB31" s="2"/>
-      <c r="AD31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE31" s="2"/>
-      <c r="AG31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH31" s="2"/>
-      <c r="AJ31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK31" s="2"/>
-      <c r="AN31" s="11" t="s">
-        <v>75</v>
-      </c>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.45">
+      <c r="B32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B33" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="B33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B34" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B35" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
+    <row r="36" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
     </row>
-    <row r="37" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="11"/>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="13"/>
+    <row r="38" spans="2:38" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="11"/>
     </row>
-    <row r="39" spans="2:38" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="13"/>
-    </row>
-    <row r="40" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
+    <row r="39" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AJ5:AK6"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AJ4:AK5"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH6"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD4:AE5"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I31">
-    <cfRule type="cellIs" dxfId="56" priority="99" operator="equal">
+  <conditionalFormatting sqref="I8:I30">
+    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="97" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="98" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39 L38:L39">
+  <conditionalFormatting sqref="I37:I38 L37:L38">
     <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3542,7 +3509,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L31">
+  <conditionalFormatting sqref="L8:L30">
     <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3553,7 +3520,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O31">
+  <conditionalFormatting sqref="O8:O30">
     <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3564,40 +3531,40 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38:O39">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>"NO"</formula>
+  <conditionalFormatting sqref="O37:O38">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R30">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R31">
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
-      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:R39">
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+  <conditionalFormatting sqref="R37:R38">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
-      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U31">
+  <conditionalFormatting sqref="U8:U30">
     <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3608,73 +3575,73 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U39">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+  <conditionalFormatting sqref="U37:U38">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
-      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X9:X31">
+  <conditionalFormatting sqref="X8:X30">
     <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:X39">
+  <conditionalFormatting sqref="X37:X38">
     <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AA30">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA31">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+  <conditionalFormatting sqref="AA37:AA38">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="36" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8:AD30">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA38:AA39">
-    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD31">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>"?"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AD39">
+  <conditionalFormatting sqref="AD37:AD38">
     <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3685,52 +3652,52 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG31">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+  <conditionalFormatting sqref="AG8:AG30">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG38:AG39">
+  <conditionalFormatting sqref="AG37:AG38">
     <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AJ31">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"NO"</formula>
+  <conditionalFormatting sqref="AJ8:AJ30">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"?"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ37:AJ38">
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
       <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38:AJ39">
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"?"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I31 I38:I39 AA9:AA31 AJ9:AJ31 O9:O31 AG9:AG31 R9:R31 U9:U31 X9:X31 AD9:AD31 AG38:AG39 O38:O39 R38:R39 U38:U39 X38:X39 AA38:AA39 AD38:AD39 AJ38:AJ39 L38:L39 L9:L31" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I30 I37:I38 AA8:AA30 AJ8:AJ30 O8:O30 AG8:AG30 R8:R30 U8:U30 X8:X30 AD8:AD30 AG37:AG38 O37:O38 R37:R38 U37:U38 X37:X38 AA37:AA38 AD37:AD38 AJ37:AJ38 L37:L38 L8:L30" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
       <formula1>"?,YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CAF/ConditionalAccessBlueprint-Template.xlsx
+++ b/CAF/ConditionalAccessBlueprint-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbaes\Development\jbaes\src\CAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasperBaes\Development\jbaes\src\CAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B10FFC-B43F-4B1E-A1C4-F129F1BEB070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB6E25-DCB5-41CF-B891-923C2A434F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="8445" windowWidth="21600" windowHeight="7035" xr2:uid="{590C24E4-4A73-44F3-8B4D-C51996FA739D}"/>
+    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{590C24E4-4A73-44F3-8B4D-C51996FA739D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="85">
   <si>
     <t>persona #1</t>
   </si>
@@ -370,7 +370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Token Protection</t>
+      <t xml:space="preserve"> Apply Conditional Access App Control</t>
     </r>
   </si>
   <si>
@@ -393,8 +393,183 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Apply Conditional Access App Control</t>
-    </r>
+      <t xml:space="preserve"> Take action on identity risk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block full access</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>persona #2</t>
+  </si>
+  <si>
+    <t>Block every OS except Windows</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>persona #3</t>
+  </si>
+  <si>
+    <t>persona #4</t>
+  </si>
+  <si>
+    <t>persona #5</t>
+  </si>
+  <si>
+    <t>persona #6</t>
+  </si>
+  <si>
+    <t>persona #7</t>
+  </si>
+  <si>
+    <t>persona #8</t>
+  </si>
+  <si>
+    <t>persona #9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : action applicable to persona</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  : action not applicable to persona</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      : TBD</t>
+    </r>
+  </si>
+  <si>
+    <t>Next steps:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block 'Device code' authentication flow</t>
+    </r>
+  </si>
+  <si>
+    <t>It is possible for this persona to...</t>
+  </si>
+  <si>
+    <t>All users</t>
+  </si>
+  <si>
+    <t>General users</t>
+  </si>
+  <si>
+    <t>Service Accounts</t>
+  </si>
+  <si>
+    <t>ADM users</t>
+  </si>
+  <si>
+    <t>DEV users</t>
   </si>
   <si>
     <r>
@@ -416,7 +591,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Take action on identity risk</t>
+      <t xml:space="preserve"> Require phishing-resistant MFA</t>
     </r>
   </si>
   <si>
@@ -439,119 +614,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block full access</t>
-    </r>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>persona #2</t>
-  </si>
-  <si>
-    <t>Block every OS except Windows</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>persona #3</t>
-  </si>
-  <si>
-    <t>persona #4</t>
-  </si>
-  <si>
-    <t>persona #5</t>
-  </si>
-  <si>
-    <t>persona #6</t>
-  </si>
-  <si>
-    <t>persona #7</t>
-  </si>
-  <si>
-    <t>persona #8</t>
-  </si>
-  <si>
-    <t>persona #9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> YES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : action applicable to persona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  : action not applicable to persona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      : TBD</t>
-    </r>
-  </si>
-  <si>
-    <t>Next steps:</t>
+      <t xml:space="preserve"> Block unknow/other Operating Systems</t>
+    </r>
   </si>
   <si>
     <r>
@@ -573,26 +637,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block 'Device code' authentication flow</t>
-    </r>
-  </si>
-  <si>
-    <t>It is possible for this persona to...</t>
-  </si>
-  <si>
-    <t>All users</t>
-  </si>
-  <si>
-    <t>General users</t>
-  </si>
-  <si>
-    <t>Service Accounts</t>
-  </si>
-  <si>
-    <t>ADM users</t>
-  </si>
-  <si>
-    <t>DEV users</t>
+      <t xml:space="preserve"> Block Old Operating Systems versions</t>
+    </r>
   </si>
   <si>
     <r>
@@ -614,7 +660,169 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require phishing-resistant MFA</t>
+      <t xml:space="preserve"> Require additional controls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Require MFA when users join or register</t>
+    </r>
+  </si>
+  <si>
+    <t>Block below version 10.0</t>
+  </si>
+  <si>
+    <t>persona #10</t>
+  </si>
+  <si>
+    <t>Create below CA policies as needed. Then include or exclude personas</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Full block</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require MFA</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require phishing-resistant MFA</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require compliant device</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require corporate owned devices</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Allow deviceID for AD Sync accounts</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block unknown Operating Systems</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block all devices except Extension Attribute ‘MeetingRoomDevices’</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Only allow manufacturer X</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block old Windows versions</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require App Protection Policies (Android + iOS)</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require trusted IP</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Allow USA and Europe</t>
+  </si>
+  <si>
+    <t>CA – O365 : Allow access</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Sign-in frequency 2 weeks</t>
+  </si>
+  <si>
+    <t>CA – O365 : Require Token Protection</t>
+  </si>
+  <si>
+    <t>CA – O365 : Block desktop app</t>
+  </si>
+  <si>
+    <t>CA – All Apps : CA App Controls</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block legacy authentication</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block device code authentication</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Block for All Users when high sign-in risk</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require addidional control</t>
+  </si>
+  <si>
+    <t>CA – All Apps : Require MFA on device join</t>
+  </si>
+  <si>
+    <t>Now group these personas in Conditional Access policies based on their common actions. Then, add the personas to the policy. No need to create a seperate policy for each persona.</t>
+  </si>
+  <si>
+    <t>Scoped on O365</t>
+  </si>
+  <si>
+    <t>Device Attribute 'XXX'</t>
+  </si>
+  <si>
+    <t>!! THIS IS AN EXAMPLE !!</t>
+  </si>
+  <si>
+    <t>Conditional Access Blueprint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Require device state</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Require phishing-resistant MFA with Authentication context</t>
     </r>
   </si>
   <si>
@@ -637,30 +845,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Block unknow/other Operating Systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block Old Operating Systems versions</t>
+      <t xml:space="preserve"> Block mobile Operating Systems (Android and iOS)</t>
     </r>
   </si>
   <si>
@@ -683,7 +868,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require additional controls</t>
+      <t xml:space="preserve"> Token Protection (preview)</t>
     </r>
   </si>
   <si>
@@ -706,101 +891,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Require MFA when users join or register</t>
-    </r>
-  </si>
-  <si>
-    <t>Block below version 10.0</t>
-  </si>
-  <si>
-    <t>persona #10</t>
-  </si>
-  <si>
-    <t>Create below CA policies as needed. Then include or exclude personas</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Full block</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require MFA</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require phishing-resistant MFA</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require compliant device</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require corporate owned devices</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Allow deviceID for AD Sync accounts</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block unknown Operating Systems</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block all devices except Extension Attribute ‘MeetingRoomDevices’</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Only allow manufacturer X</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block old Windows versions</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require App Protection Policies (Android + iOS)</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require trusted IP</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Allow USA and Europe</t>
-  </si>
-  <si>
-    <t>CA – O365 : Allow access</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Sign-in frequency 2 weeks</t>
-  </si>
-  <si>
-    <t>CA – O365 : Require Token Protection</t>
-  </si>
-  <si>
-    <t>CA – O365 : Block desktop app</t>
-  </si>
-  <si>
-    <t>CA – All Apps : CA App Controls</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block legacy authentication</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block device code authentication</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Block for All Users when high sign-in risk</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require addidional control</t>
-  </si>
-  <si>
-    <t>CA – All Apps : Require MFA on device join</t>
-  </si>
-  <si>
-    <t>Now group these personas in Conditional Access policies based on their common actions. Then, add the personas to the policy. No need to create a seperate policy for each persona.</t>
-  </si>
-  <si>
-    <t>Scoped on O365</t>
-  </si>
-  <si>
-    <t>Device Attribute 'XXX'</t>
-  </si>
-  <si>
-    <t>!! THIS IS AN EXAMPLE !!</t>
-  </si>
-  <si>
-    <t>Conditional Access Blueprint</t>
+      <t xml:space="preserve"> Restrict MFA registration (via TAP, exclude location / device)</t>
+    </r>
+  </si>
+  <si>
+    <t>CA – All Apps: Require phishing-resistant MFA with Authentication Context</t>
+  </si>
+  <si>
+    <t>CA – All Apps: Block Android and iOS</t>
+  </si>
+  <si>
+    <t>CA – All Apps: Require trusted location on MFA registration</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1166,6 +1267,9 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,6 +1277,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,23 +1324,372 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
@@ -1828,64 +2290,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C93947D-9E3A-4EA6-8CCF-82CFE84F5ADA}">
-  <dimension ref="B1:AN39"/>
+  <dimension ref="B1:AN43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="123" zoomScaleNormal="138" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="9" customWidth="1"/>
-    <col min="2" max="6" width="9.06640625" style="9"/>
-    <col min="7" max="7" width="8.796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="0.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.53125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="0.33203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.53125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="0.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="13.53125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="0.33203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="13.53125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="0.33203125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="13.53125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="0.33203125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="13.53125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="0.33203125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="9" customWidth="1"/>
-    <col min="28" max="28" width="13.53125" style="9" customWidth="1"/>
-    <col min="29" max="29" width="0.33203125" style="9" customWidth="1"/>
-    <col min="30" max="30" width="3.33203125" style="9" customWidth="1"/>
-    <col min="31" max="31" width="13.53125" style="9" customWidth="1"/>
-    <col min="32" max="32" width="0.33203125" style="9" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" style="9" customWidth="1"/>
-    <col min="34" max="34" width="13.53125" style="9" customWidth="1"/>
-    <col min="35" max="35" width="0.33203125" style="9" customWidth="1"/>
-    <col min="36" max="36" width="3.33203125" style="9" customWidth="1"/>
-    <col min="37" max="37" width="13.53125" style="9" customWidth="1"/>
-    <col min="38" max="38" width="0.33203125" style="9" customWidth="1"/>
-    <col min="39" max="39" width="3.33203125" style="9" customWidth="1"/>
-    <col min="40" max="16384" width="9.06640625" style="9"/>
+    <col min="1" max="1" width="2.453125" style="9" customWidth="1"/>
+    <col min="2" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="8.81640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="0.36328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="3.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="0.36328125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="3.36328125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="0.36328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="3.36328125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="0.36328125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="3.36328125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="0.36328125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="3.36328125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" style="9" customWidth="1"/>
+    <col min="23" max="23" width="0.36328125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="3.36328125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="13.54296875" style="9" customWidth="1"/>
+    <col min="26" max="26" width="0.36328125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="3.36328125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="13.54296875" style="9" customWidth="1"/>
+    <col min="29" max="29" width="0.36328125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="3.36328125" style="9" customWidth="1"/>
+    <col min="31" max="31" width="13.54296875" style="9" customWidth="1"/>
+    <col min="32" max="32" width="0.36328125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="3.36328125" style="9" customWidth="1"/>
+    <col min="34" max="34" width="13.54296875" style="9" customWidth="1"/>
+    <col min="35" max="35" width="0.36328125" style="9" customWidth="1"/>
+    <col min="36" max="36" width="3.36328125" style="9" customWidth="1"/>
+    <col min="37" max="37" width="13.54296875" style="9" customWidth="1"/>
+    <col min="38" max="38" width="0.36328125" style="9" customWidth="1"/>
+    <col min="39" max="39" width="3.36328125" style="9" customWidth="1"/>
+    <col min="40" max="16384" width="9.08984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="14.65" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+    <row r="1" spans="2:40" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -1896,13 +2358,13 @@
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+    <row r="2" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1913,118 +2375,118 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="2:40" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="I3" s="22" t="s">
+    <row r="3" spans="2:40" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="J3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="O3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="R3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="23"/>
+      <c r="U3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="23"/>
+      <c r="X3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="X3" s="22" t="s">
+      <c r="Y3" s="23"/>
+      <c r="AA3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="AA3" s="22" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AD3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AD3" s="22" t="s">
+      <c r="AE3" s="23"/>
+      <c r="AG3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="22"/>
-      <c r="AG3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="22"/>
-      <c r="AJ3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="22"/>
+      <c r="AH3" s="23"/>
+      <c r="AJ3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="23"/>
     </row>
-    <row r="4" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="L4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="27"/>
+      <c r="O4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="28"/>
+      <c r="R4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="28"/>
+      <c r="U4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="U4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="X4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="24"/>
-      <c r="AA4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="24"/>
-      <c r="AD4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="24"/>
-      <c r="AG4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="24"/>
-      <c r="AJ4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="X4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="AA4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AD4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="25"/>
+      <c r="AG4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="25"/>
+      <c r="AJ4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
+    <row r="5" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
-        <v>36</v>
+    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2052,10 +2514,10 @@
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
       <c r="AN6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2063,9 +2525,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2073,50 +2535,50 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2"/>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="2"/>
       <c r="O8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" s="2"/>
       <c r="R8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2"/>
       <c r="U8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V8" s="2"/>
       <c r="X8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="AA8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AD8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AG8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AJ8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AN8" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -2126,52 +2588,52 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" s="2"/>
       <c r="R9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="2"/>
       <c r="U9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V9" s="2"/>
       <c r="X9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="AA9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AD9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AG9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AJ9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" s="2"/>
       <c r="AN9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2179,50 +2641,50 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P10" s="2"/>
       <c r="R10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" s="2"/>
       <c r="U10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V10" s="2"/>
       <c r="X10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="AA10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AD10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AG10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AJ10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK10" s="2"/>
       <c r="AN10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -2232,52 +2694,52 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" s="2"/>
       <c r="U11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V11" s="2"/>
       <c r="X11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="AA11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AD11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AG11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH11" s="2"/>
       <c r="AJ11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AN11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2289,48 +2751,45 @@
       </c>
       <c r="J12" s="2"/>
       <c r="L12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" s="2"/>
       <c r="R12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12" s="2"/>
       <c r="U12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V12" s="2"/>
       <c r="X12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="AA12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AD12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AG12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AJ12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK12" s="2"/>
-      <c r="AN12" s="9" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2338,52 +2797,52 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P13" s="2"/>
       <c r="R13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V13" s="2"/>
       <c r="X13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="AA13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AD13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AG13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AJ13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AN13" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2391,56 +2850,52 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" s="2"/>
       <c r="R14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S14" s="2"/>
       <c r="U14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V14" s="2"/>
       <c r="X14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="AA14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AD14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AG14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AJ14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AN14" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2448,54 +2903,52 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="O15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="R15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="S15" s="2"/>
       <c r="U15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="V15" s="2"/>
       <c r="X15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="AA15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AD15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AG15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="AH15" s="2"/>
       <c r="AJ15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="AK15" s="2"/>
       <c r="AN15" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2503,52 +2956,56 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P16" s="2"/>
       <c r="R16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S16" s="2"/>
       <c r="U16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V16" s="2"/>
       <c r="X16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="AA16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AD16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AG16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AJ16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK16" s="2"/>
       <c r="AN16" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2558,52 +3015,52 @@
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="L17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="O17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="P17" s="5"/>
       <c r="R17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="S17" s="5"/>
       <c r="U17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="V17" s="5"/>
       <c r="X17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="Y17" s="5"/>
       <c r="AA17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AB17" s="5"/>
       <c r="AD17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AE17" s="5"/>
       <c r="AG17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AH17" s="5"/>
       <c r="AJ17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AK17" s="5"/>
       <c r="AN17" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2611,52 +3068,52 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2"/>
       <c r="L18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" s="2"/>
       <c r="R18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" s="2"/>
       <c r="U18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V18" s="2"/>
       <c r="X18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="AA18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AD18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AG18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AJ18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" s="2"/>
       <c r="AN18" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2664,52 +3121,54 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P19" s="2"/>
       <c r="R19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S19" s="2"/>
       <c r="U19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="AA19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AD19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AG19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AJ19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK19" s="2"/>
       <c r="AN19" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2717,52 +3176,52 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P20" s="2"/>
       <c r="R20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S20" s="2"/>
       <c r="U20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V20" s="2"/>
       <c r="X20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="AA20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AD20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AG20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AJ20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK20" s="2"/>
       <c r="AN20" s="9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2770,52 +3229,52 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2"/>
       <c r="L21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P21" s="2"/>
       <c r="R21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S21" s="2"/>
       <c r="U21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="AA21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AD21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AG21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AJ21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" s="2"/>
       <c r="AN21" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2823,52 +3282,52 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="M22" s="6"/>
       <c r="O22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P22" s="2"/>
       <c r="R22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="2"/>
       <c r="U22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V22" s="2"/>
       <c r="X22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="AA22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AD22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AG22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AJ22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK22" s="2"/>
       <c r="AN22" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2878,52 +3337,50 @@
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" s="2"/>
       <c r="R23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S23" s="2"/>
       <c r="U23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="AA23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AD23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AG23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AJ23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="2"/>
       <c r="AN23" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2931,52 +3388,52 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="2"/>
       <c r="L24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P24" s="2"/>
       <c r="R24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S24" s="2"/>
       <c r="U24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V24" s="2"/>
       <c r="X24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="AA24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AD24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AG24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AJ24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK24" s="2"/>
       <c r="AN24" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2988,48 +3445,48 @@
       </c>
       <c r="J25" s="2"/>
       <c r="L25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P25" s="2"/>
       <c r="R25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S25" s="2"/>
       <c r="U25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V25" s="2"/>
       <c r="X25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="AA25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AD25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AG25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AJ25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK25" s="2"/>
       <c r="AN25" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3037,52 +3494,54 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="L26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S26" s="2"/>
       <c r="U26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V26" s="2"/>
       <c r="X26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="AA26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AD26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AG26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" s="2"/>
       <c r="AJ26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" s="2"/>
       <c r="AN26" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3094,48 +3553,48 @@
       </c>
       <c r="J27" s="2"/>
       <c r="L27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S27" s="2"/>
       <c r="U27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V27" s="2"/>
       <c r="X27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="AA27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AD27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AG27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AJ27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK27" s="2"/>
       <c r="AN27" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3147,48 +3606,48 @@
       </c>
       <c r="J28" s="2"/>
       <c r="L28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P28" s="2"/>
       <c r="R28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S28" s="2"/>
       <c r="U28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V28" s="2"/>
       <c r="X28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="AA28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AD28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AG28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH28" s="2"/>
       <c r="AJ28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" s="2"/>
       <c r="AN28" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3200,48 +3659,48 @@
       </c>
       <c r="J29" s="2"/>
       <c r="L29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P29" s="2"/>
       <c r="R29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S29" s="2"/>
       <c r="U29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V29" s="2"/>
       <c r="X29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="AA29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AD29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AG29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH29" s="2"/>
       <c r="AJ29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK29" s="2"/>
       <c r="AN29" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3253,229 +3712,432 @@
       </c>
       <c r="J30" s="2"/>
       <c r="L30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P30" s="2"/>
       <c r="R30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S30" s="2"/>
       <c r="U30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V30" s="2"/>
       <c r="X30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="AA30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AD30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AG30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH30" s="2"/>
       <c r="AJ30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" s="2"/>
       <c r="AN30" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="O31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="R31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="U31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="X31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="AA31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AD31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE31" s="2"/>
+      <c r="AG31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH31" s="2"/>
+      <c r="AJ31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK31" s="2"/>
+      <c r="AN31" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="L32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="O32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="R32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="U32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="X32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="AA32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AD32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AG32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH32" s="2"/>
+      <c r="AJ32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK32" s="2"/>
+      <c r="AN32" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="L33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="O33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="R33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="U33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="X33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="AA33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AD33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE33" s="2"/>
+      <c r="AG33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH33" s="2"/>
+      <c r="AJ33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK33" s="2"/>
+      <c r="AN33" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="L34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="O34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="R34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="U34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="2"/>
+      <c r="X34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="AA34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AD34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AG34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH34" s="2"/>
+      <c r="AJ34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK34" s="2"/>
+      <c r="AN34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B37" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B38" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="40" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="11"/>
+    </row>
+    <row r="42" spans="2:40" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="11"/>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.45">
-      <c r="B32" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B33" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B34" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="36" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="11"/>
-    </row>
-    <row r="38" spans="2:38" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="11"/>
-    </row>
-    <row r="39" spans="2:38" ht="1.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
+    <row r="43" spans="2:40" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P5"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AJ4:AK5"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB5"/>
     <mergeCell ref="AD3:AE3"/>
@@ -3486,195 +4148,468 @@
     <mergeCell ref="R4:S5"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V5"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I8:I30">
-    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
+  <conditionalFormatting sqref="I8:I32 I34">
+    <cfRule type="cellIs" dxfId="128" priority="169" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="170" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="171" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I38 L37:L38">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+  <conditionalFormatting sqref="I41:I42 L41:L42">
+    <cfRule type="cellIs" dxfId="125" priority="121" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L30">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+  <conditionalFormatting sqref="L8:L34">
+    <cfRule type="cellIs" dxfId="122" priority="73" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="74" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="75" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O30">
-    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
+  <conditionalFormatting sqref="O8:O19 O21:O32 O34">
+    <cfRule type="cellIs" dxfId="119" priority="163" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="164" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="165" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O38">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+  <conditionalFormatting sqref="O41:O42">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R30">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
+  <conditionalFormatting sqref="R8:R11 R14:R19 R21:R32 R34">
+    <cfRule type="cellIs" dxfId="113" priority="94" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="95" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="96" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R37:R38">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+  <conditionalFormatting sqref="R41:R42">
+    <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="116" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="117" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U30">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+  <conditionalFormatting sqref="U8:U11 U14:U19 U21:U32 U34">
+    <cfRule type="cellIs" dxfId="107" priority="91" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="92" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="93" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U37:U38">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+  <conditionalFormatting sqref="U41:U42">
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X30">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+  <conditionalFormatting sqref="X8:X11 X14:X19 X21:X32 X34">
+    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="89" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="90" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X37:X38">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+  <conditionalFormatting sqref="X41:X42">
+    <cfRule type="cellIs" dxfId="98" priority="109" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="110" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="111" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA30">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+  <conditionalFormatting sqref="AA8:AA11 AA14:AA19 AA21:AA32 AA34">
+    <cfRule type="cellIs" dxfId="95" priority="85" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="86" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="87" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA37:AA38">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+  <conditionalFormatting sqref="AA41:AA42">
+    <cfRule type="cellIs" dxfId="92" priority="106" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD30">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+  <conditionalFormatting sqref="AD8:AD11 AD14:AD19 AD21:AD32 AD34">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD37:AD38">
-    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
+  <conditionalFormatting sqref="AD41:AD42">
+    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="104" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG30">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="AG8:AG11 AG14:AG19 AG21:AG32 AG34">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG37:AG38">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+  <conditionalFormatting sqref="AG41:AG42">
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="101" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ30">
+  <conditionalFormatting sqref="AJ8:AJ11 AJ14:AJ19 AJ34 AJ21:AJ32">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ41:AJ42">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="98" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R13">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U13">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:X13">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD12:AD13">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12:AG13">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12:AJ13">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA20">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA33">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -3685,23 +4620,29 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37:AJ38">
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I30 I37:I38 AA8:AA30 AJ8:AJ30 O8:O30 AG8:AG30 R8:R30 U8:U30 X8:X30 AD8:AD30 AG37:AG38 O37:O38 R37:R38 U37:U38 X37:X38 AA37:AA38 AD37:AD38 AJ37:AJ38 L37:L38 L8:L30" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ34 I41:I42 X8:X34 AG8:AG34 O8:O34 AD8:AD34 L8:L34 R8:R34 U8:U34 AA8:AA34 AG41:AG42 O41:O42 R41:R42 U41:U42 X41:X42 AA41:AA42 AD41:AD42 AJ41:AJ42 L41:L42 I8:I34" xr:uid="{D704236C-586F-46B6-868B-4D300C47283A}">
       <formula1>"?,YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{9044a139-c076-404f-8311-505d8fd2511a}" enabled="1" method="Privileged" siteId="{2cf6ec6e-2282-4005-9973-344bcba75c54}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>